--- a/Feature_importance.xlsx
+++ b/Feature_importance.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_bench\EPI\EPI_ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31B7073-6D95-475D-83AF-144A77BE1C4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AFB796-5449-4135-A6E9-016B4E2D164C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="630" windowWidth="21795" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
   <si>
     <t>LabuteASA</t>
   </si>
@@ -172,12 +173,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -192,9 +199,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,11 +482,976 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38C8F19-98E3-4948-8FD3-8B2AF4928FCB}">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="8" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.0504000000000001E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.4726000000000001E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9.1109999999999993E-3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.7642000000000001E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.9253000000000001E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.2465E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2.4695999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4.8057999999999997E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.4175999999999998E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.0382000000000001E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3.9704000000000003E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3.4842999999999999E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4.4651999999999997E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.4684999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.8676E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.3259999999999999E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.4304000000000001E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.8797E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3.0938E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.9998999999999999E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.5963E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.341E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.4306999999999997E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.3763999999999999E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.5680000000000001E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.0397E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.3022000000000001E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3.2010999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3.4428E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.2636E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.6360999999999997E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.7006E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.5662999999999998E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.9369000000000001E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.6590000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.7440000000000001E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.5379E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.15512500000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.5520000000000001E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.9075000000000002E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.6792999999999999E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2.1085E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3.2502000000000003E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.5969000000000001E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5.5633000000000002E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6.2182000000000001E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.7106999999999999E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3.9796999999999999E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3.4834999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.085E-3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.039E-3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.8499999999999998E-4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.56E-3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>6.1919999999999996E-3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.2720000000000001E-3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.1869999999999999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3.8734999999999999E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.0320000000000001E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.0858999999999999E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.1766000000000001E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4.4364000000000001E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.5721000000000001E-2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3.1351999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.9231999999999999E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.6455000000000001E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.2980000000000002E-3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.7375999999999999E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.0464E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.0238000000000001E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.357E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3.1543000000000002E-2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.7309E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.0542000000000001E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.3136E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.5409999999999999E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3.1129E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3.5704E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.9012999999999999E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.4805E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3.7404E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.4201999999999999E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.2043E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1.1252E-2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.8144E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.4846E-2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3.1674000000000001E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4.4104999999999998E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4.3110999999999997E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.4254999999999999E-2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.8996999999999998E-2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3.6636000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5.5031999999999998E-2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4.8758999999999997E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.101947</v>
+      </c>
+      <c r="E15" s="1">
+        <v>9.4447000000000003E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5.3363000000000001E-2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4.1431999999999997E-2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5.0996E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.387E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.0848999999999999E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.2119E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6.9550000000000002E-3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>9.1769999999999994E-3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.1032999999999999E-2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.3539000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3.0445E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.8978E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7.0736999999999994E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.6824000000000001E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3.5157000000000001E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3.4694999999999997E-2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3.8587000000000003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5.4926000000000003E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.7009E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>9.9150000000000002E-3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.4573999999999999E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.1527000000000001E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3.0145999999999999E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.6485E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3.5089000000000002E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7.4783000000000002E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>9.7040000000000008E-3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3.5215999999999997E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2.9005E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5.0950000000000002E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2.7928000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.7049999999999999E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>8.6529999999999992E-3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6.6239000000000006E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.5831000000000001E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2.1402000000000001E-2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>8.8120000000000004E-3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1.2765E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4.9514000000000002E-2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.109697</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8.5349999999999992E-3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5.7446999999999998E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>6.6321000000000005E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6.3024999999999998E-2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>8.9886999999999995E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.8119999999999999E-2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.8034E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.8995000000000001E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.5465000000000002E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.9698E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2.3161000000000001E-2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2.6535E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4.8453000000000003E-2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6.6668000000000005E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.1357000000000001E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.157309</v>
+      </c>
+      <c r="F23" s="1">
+        <v>7.6272000000000006E-2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4.6469000000000003E-2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.109044</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3.1780999999999997E-2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3.9976999999999999E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6.0240000000000002E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3.4817000000000001E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3.5874999999999997E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>7.5591000000000005E-2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2.8896999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.9952000000000001E-2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.2948E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.9734E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.4767000000000001E-2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2.2846999999999999E-2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1.6909E-2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2.1994E-2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2.5295000000000002E-2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.4130000000000002E-3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>8.9169999999999996E-3</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2.9492999999999998E-2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.3606E-2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2.6286E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2.9638000000000001E-2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.9366000000000001E-2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3.9058000000000002E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3.0793999999999998E-2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2.4003E-2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2.6741999999999998E-2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2.5080999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>9.4631999999999994E-2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4.0153000000000001E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5.0790000000000002E-3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2.9523000000000001E-2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5.7564999999999998E-2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.11280900000000001</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3.9810999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2.5614000000000001E-2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.9486E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.5929000000000001E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2.9887E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2.2539E-2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1.6846E-2</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1.9269999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4.4664000000000002E-2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>7.5424000000000005E-2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2.6838000000000001E-2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2.9951999999999999E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>6.9677000000000003E-2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>5.9872000000000002E-2</v>
+      </c>
+      <c r="H30" s="1">
+        <v>7.6083999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4.0862999999999997E-2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3.1715E-2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2.6762000000000001E-2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2.6904000000000001E-2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3.8691999999999997E-2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4.6566999999999997E-2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>4.4538000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.8891000000000002E-2</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2.9151E-2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.3126000000000001E-2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1.2688E-2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2.7383999999999999E-2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3.5628E-2</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2.1409000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{932FCA63-CE29-4636-AFBC-6C14E61318E2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:C1048576">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6962FDF9-6DF7-498B-B03A-DCB7CA396962}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{75F87123-A84C-45BF-B1FC-BE1438EB07C3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:H1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1375ACCE-C365-4E61-A005-FCEB717991F2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{932FCA63-CE29-4636-AFBC-6C14E61318E2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A1:A1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6962FDF9-6DF7-498B-B03A-DCB7CA396962}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B1:C1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{75F87123-A84C-45BF-B1FC-BE1438EB07C3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1375ACCE-C365-4E61-A005-FCEB717991F2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E1:H1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
